--- a/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Ventas/Recepcion/Toyota - CEL - Analisis - Ventas - Recepcion.xlsx
+++ b/TOYOTA-Celaya/Fuentes - Toyota/Distribuidor/Ventas/Recepcion/Toyota - CEL - Analisis - Ventas - Recepcion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\KE\JMM\PROCESSES MAPPING\toyota_proceso\TOYOTA-Celaya\Fuentes - Toyota\Distribuidor\Ventas\Recepcion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA95E86-1C8D-4DAE-BE04-B1A726CF42DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D878610C-05E7-4F64-9C84-EB16A59B8CAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="19950" windowHeight="10800" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
+    <workbookView xWindow="390" yWindow="390" windowWidth="19950" windowHeight="10590" activeTab="1" xr2:uid="{7E74557B-02A4-44EF-8F45-FC026D5565D6}"/>
   </bookViews>
   <sheets>
     <sheet name="RECEPCION VTAS" sheetId="6" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="349" uniqueCount="177">
   <si>
     <t>Tipo</t>
   </si>
@@ -491,12 +491,6 @@
     <t>Liberacion</t>
   </si>
   <si>
-    <t>Comentarios</t>
-  </si>
-  <si>
-    <t>Lo llena recepcion, el dato lo pasan los asesores de ventas verbal o por whats</t>
-  </si>
-  <si>
     <t>Perfil, Clientes</t>
   </si>
   <si>
@@ -587,9 +581,6 @@
     <t>DMS - Ref</t>
   </si>
   <si>
-    <t>Un campo del FTO excel que puede salir del Estatus de Liberacion del Pedido</t>
-  </si>
-  <si>
     <t>A. Se genera un archivo de excel el cual se envia a (Luis Arellano) - Auxiliar Admin. Ventas, la INFO se estructura por vendedor y se clasifica en cuantos fueron de piso y cuantos digitales. Esta Info se distribuye a GTE Ventas y GTE MKT.
 1. Crean perfil con datos ( ver adjunto 1 )
 2. Creado el perfil el sistema pasa a ... se asigna a un asesor (por letra)
@@ -634,9 +625,6 @@
 2. En la busqueda solo permite buscar por nombre (ver punto 1).</t>
   </si>
   <si>
-    <t>No usan la opcion, solo permite registrar datos de estatus de actividades del vendedor pero no hace nada (no guarda los caambios).</t>
-  </si>
-  <si>
     <t>En las Actividades del Vendedor como Demostracion Estatica, Prueba de Manejo, Etc. Aunque Actualizan los Datos el Sistema No los Guarda.</t>
   </si>
   <si>
@@ -666,6 +654,18 @@
   </si>
   <si>
     <t>M</t>
+  </si>
+  <si>
+    <t>No usan la opcion, solo permite registrar datos de estatus de actividades del vendedor pero no hace nada (no guarda los cambios).</t>
+  </si>
+  <si>
+    <t>Un campo del FTO excel que puede salir del Estatus de Liberacion del Perfil</t>
+  </si>
+  <si>
+    <t>Lo llena recepcion, el dato lo pasan los asesores de ventas verbal o por whats. Comentarios del Cliente asociados a la visita y que dan como retroalimentacion a la Recepcionista.</t>
+  </si>
+  <si>
+    <t>Comentarios Perfil / Recepcionista</t>
   </si>
 </sst>
 </file>
@@ -1291,9 +1291,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2B23956-284C-4842-B9B2-8E2C9A047536}">
   <dimension ref="B2:AB21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="6" ySplit="4" topLeftCell="AA6" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AC6" sqref="AC6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1329,7 +1331,7 @@
     <col min="29" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:28" ht="137.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:28" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
@@ -1497,7 +1499,7 @@
         <v>64</v>
       </c>
       <c r="AB4" s="32" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="5" spans="2:28" x14ac:dyDescent="0.25">
@@ -1626,7 +1628,7 @@
       <c r="V7" s="12"/>
       <c r="W7" s="12"/>
       <c r="X7" s="12" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="Y7" s="12"/>
       <c r="Z7" s="24" t="s">
@@ -1636,7 +1638,7 @@
         <v>65</v>
       </c>
       <c r="AB7" s="24" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="8" spans="2:28" x14ac:dyDescent="0.25">
@@ -1732,7 +1734,7 @@
         <v>78</v>
       </c>
       <c r="X9" s="12" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="Y9" s="12"/>
       <c r="Z9" s="24" t="s">
@@ -1783,7 +1785,7 @@
         <v>77</v>
       </c>
       <c r="X10" s="12" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="Y10" s="12"/>
       <c r="Z10" s="24" t="s">
@@ -1881,15 +1883,15 @@
       <c r="V12" s="12"/>
       <c r="W12" s="12"/>
       <c r="X12" s="12" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
       <c r="Y12" s="12"/>
       <c r="Z12" s="24" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AA12" s="24"/>
       <c r="AB12" s="24" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
     </row>
     <row r="13" spans="2:28" x14ac:dyDescent="0.25">
@@ -2029,7 +2031,7 @@
         <v>100</v>
       </c>
       <c r="AA15" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="AB15" s="27"/>
     </row>
@@ -2045,7 +2047,7 @@
       </c>
       <c r="E16" s="7"/>
       <c r="F16" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>102</v>
@@ -2084,11 +2086,11 @@
         <v>52</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E17" s="7"/>
       <c r="F17" s="7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="G17" s="8"/>
       <c r="H17" s="8"/>
@@ -2109,18 +2111,18 @@
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="X17" s="12"/>
       <c r="Y17" s="12"/>
       <c r="Z17" s="24" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AA17" s="24" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="AB17" s="24" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="18" spans="2:28" x14ac:dyDescent="0.25">
@@ -2256,9 +2258,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82188076-37BB-4794-A22C-2543EB8D65FF}">
   <dimension ref="B2:X18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="3" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2287,15 +2289,15 @@
     <col min="23" max="24" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22" ht="135" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:22" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C2" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="I2" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="J2" s="16" t="s">
         <v>109</v>
@@ -2313,7 +2315,7 @@
         <v>43</v>
       </c>
       <c r="D3" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="E3" s="17" t="s">
         <v>47</v>
@@ -2328,13 +2330,13 @@
         <v>48</v>
       </c>
       <c r="I3" s="17" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="J3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="K3" s="29" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="L3" s="18" t="s">
         <v>1</v>
@@ -2343,10 +2345,10 @@
         <v>45</v>
       </c>
       <c r="N3" s="19" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="P3" s="20" t="s">
         <v>2</v>
@@ -2361,13 +2363,13 @@
         <v>46</v>
       </c>
       <c r="T3" s="30" t="s">
+        <v>148</v>
+      </c>
+      <c r="U3" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="V3" s="31" t="s">
         <v>150</v>
-      </c>
-      <c r="U3" s="31" t="s">
-        <v>151</v>
-      </c>
-      <c r="V3" s="31" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="4" spans="2:22" x14ac:dyDescent="0.25">
@@ -2381,7 +2383,7 @@
         <v>112</v>
       </c>
       <c r="E4" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F4" s="15" t="s">
         <v>51</v>
@@ -2390,13 +2392,13 @@
         <v>52</v>
       </c>
       <c r="H4" s="15" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M4" s="15" t="s">
         <v>60</v>
@@ -2416,7 +2418,7 @@
         <v>114</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F5" s="15" t="s">
         <v>51</v>
@@ -2428,10 +2430,10 @@
         <v>113</v>
       </c>
       <c r="I5" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M5" s="15" t="s">
         <v>60</v>
@@ -2442,7 +2444,7 @@
     </row>
     <row r="6" spans="2:22" ht="45" x14ac:dyDescent="0.25">
       <c r="B6" s="15" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>3</v>
@@ -2451,7 +2453,7 @@
         <v>115</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F6" s="15" t="s">
         <v>51</v>
@@ -2460,13 +2462,13 @@
         <v>52</v>
       </c>
       <c r="H6" s="15" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I6" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M6" s="15" t="s">
         <v>60</v>
@@ -2486,7 +2488,7 @@
         <v>117</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F7" s="15" t="s">
         <v>51</v>
@@ -2495,13 +2497,13 @@
         <v>52</v>
       </c>
       <c r="H7" s="15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I7" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M7" s="15" t="s">
         <v>60</v>
@@ -2521,7 +2523,7 @@
         <v>112</v>
       </c>
       <c r="E8" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F8" s="16" t="s">
         <v>51</v>
@@ -2530,14 +2532,14 @@
         <v>52</v>
       </c>
       <c r="H8" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I8" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L8" s="16" t="s">
         <v>18</v>
@@ -2565,7 +2567,7 @@
         <v>112</v>
       </c>
       <c r="E9" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F9" s="16" t="s">
         <v>51</v>
@@ -2574,14 +2576,14 @@
         <v>52</v>
       </c>
       <c r="H9" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I9" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="J9" s="16"/>
       <c r="K9" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="L9" s="16" t="s">
         <v>18</v>
@@ -2608,7 +2610,7 @@
         <v>112</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F10" s="15" t="s">
         <v>51</v>
@@ -2620,10 +2622,10 @@
         <v>122</v>
       </c>
       <c r="I10" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="M10" s="15" t="s">
         <v>60</v>
@@ -2637,13 +2639,13 @@
         <v>123</v>
       </c>
       <c r="C11" s="28" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D11" s="28" t="s">
         <v>112</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F11" s="28" t="s">
         <v>51</v>
@@ -2652,17 +2654,17 @@
         <v>52</v>
       </c>
       <c r="H11" s="28" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="I11" s="28" t="s">
         <v>51</v>
       </c>
       <c r="J11" s="28"/>
       <c r="K11" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L11" s="28" t="s">
-        <v>18</v>
+        <v>153</v>
       </c>
       <c r="M11" s="28" t="s">
         <v>60</v>
@@ -2675,15 +2677,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="2:22" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:22" ht="60" x14ac:dyDescent="0.25">
       <c r="B12" s="15" t="s">
-        <v>124</v>
+        <v>176</v>
       </c>
       <c r="C12" s="15" t="s">
         <v>3</v>
       </c>
       <c r="E12" s="15" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="F12" s="15" t="s">
         <v>51</v>
@@ -2692,13 +2694,13 @@
         <v>52</v>
       </c>
       <c r="H12" s="15" t="s">
-        <v>125</v>
+        <v>175</v>
       </c>
       <c r="I12" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M12" s="15" t="s">
         <v>60</v>
@@ -2709,25 +2711,25 @@
     </row>
     <row r="13" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="15" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" s="15" t="s">
         <v>136</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="E13" s="15" t="s">
-        <v>138</v>
       </c>
       <c r="G13" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H13" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I13" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M13" s="15" t="s">
         <v>60</v>
@@ -2738,25 +2740,25 @@
     </row>
     <row r="14" spans="2:22" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="15" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E14" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G14" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H14" s="15" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="I14" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M14" s="15" t="s">
         <v>60</v>
@@ -2767,28 +2769,31 @@
     </row>
     <row r="15" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B15" s="28" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C15" s="28" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D15" s="28"/>
       <c r="E15" s="28" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="F15" s="28"/>
       <c r="G15" s="28"/>
       <c r="H15" s="28" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I15" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="L15" s="28" t="s">
-        <v>156</v>
+        <v>153</v>
+      </c>
+      <c r="M15" s="15" t="s">
+        <v>60</v>
       </c>
       <c r="R15" s="15" t="s">
         <v>18</v>
@@ -2796,25 +2801,25 @@
     </row>
     <row r="16" spans="2:22" x14ac:dyDescent="0.25">
       <c r="B16" s="15" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E16" s="15" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G16" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H16" s="15" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I16" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K16" s="15" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="M16" s="15" t="s">
         <v>60</v>
@@ -2825,25 +2830,25 @@
     </row>
     <row r="17" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="15" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="E17" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G17" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H17" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I17" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K17" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R17" s="15" t="s">
         <v>18</v>
@@ -2851,7 +2856,7 @@
     </row>
     <row r="18" spans="2:18" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="15" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C18" s="15" t="s">
         <v>17</v>
@@ -2860,19 +2865,19 @@
         <v>112</v>
       </c>
       <c r="E18" s="15" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="G18" s="15" t="s">
         <v>52</v>
       </c>
       <c r="H18" s="15" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="I18" s="15" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="K18" s="15" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="R18" s="15" t="s">
         <v>18</v>
